--- a/kgk6.xlsx
+++ b/kgk6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpopescu/Documents/kgk6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpopescu/Contul meu Drive/kgk6_pop_dynamics/KGK6_Paper_PopDynam/Popescu_etal_KGK-VI_PopDynamics_Data_Analysis/1.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309732FF-7A02-404D-83DF-44945FA88633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55274EA-DB4C-0F4F-9ECC-30EBD16B9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17660" yWindow="500" windowWidth="18180" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1326">
   <si>
     <t>Lab. no.</t>
   </si>
@@ -3997,6 +3997,15 @@
   </si>
   <si>
     <t>CSCO Grave M 30</t>
+  </si>
+  <si>
+    <t>Carozza, Micu 2022</t>
+  </si>
+  <si>
+    <t>Voinea et al. 2015-2016</t>
+  </si>
+  <si>
+    <t>Boyadzhiev et al. 2021</t>
   </si>
 </sst>
 </file>
@@ -4006,7 +4015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4036,6 +4045,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4202,7 +4222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4286,6 +4306,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4507,8 +4530,8 @@
   </sheetPr>
   <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K189" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O209" sqref="O209"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7125,7 +7148,9 @@
       <c r="N45" s="18">
         <v>24</v>
       </c>
-      <c r="O45" s="12"/>
+      <c r="O45" s="28" t="s">
+        <v>1325</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -7181,7 +7206,9 @@
       <c r="N46" s="18">
         <v>23</v>
       </c>
-      <c r="O46" s="12"/>
+      <c r="O46" s="28" t="s">
+        <v>1325</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -7237,7 +7264,9 @@
       <c r="N47" s="18">
         <v>40</v>
       </c>
-      <c r="O47" s="12"/>
+      <c r="O47" s="28" t="s">
+        <v>1325</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -7293,7 +7322,9 @@
       <c r="N48" s="18">
         <v>40</v>
       </c>
-      <c r="O48" s="12"/>
+      <c r="O48" s="28" t="s">
+        <v>1325</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -7349,7 +7380,9 @@
       <c r="N49" s="18">
         <v>40</v>
       </c>
-      <c r="O49" s="12"/>
+      <c r="O49" s="28" t="s">
+        <v>1325</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -21746,7 +21779,7 @@
         <v>41</v>
       </c>
       <c r="O298" s="12" t="s">
-        <v>611</v>
+        <v>1324</v>
       </c>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
@@ -21804,7 +21837,7 @@
         <v>35</v>
       </c>
       <c r="O299" s="12" t="s">
-        <v>611</v>
+        <v>1324</v>
       </c>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
@@ -21862,7 +21895,7 @@
         <v>40</v>
       </c>
       <c r="O300" s="12" t="s">
-        <v>611</v>
+        <v>1324</v>
       </c>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
@@ -28068,7 +28101,7 @@
         <v>30</v>
       </c>
       <c r="O407" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
@@ -28242,7 +28275,7 @@
         <v>30</v>
       </c>
       <c r="O410" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
@@ -28358,7 +28391,7 @@
         <v>35</v>
       </c>
       <c r="O412" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
@@ -28416,7 +28449,7 @@
         <v>35</v>
       </c>
       <c r="O413" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
@@ -28474,7 +28507,7 @@
         <v>35</v>
       </c>
       <c r="O414" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
@@ -28532,7 +28565,7 @@
         <v>40</v>
       </c>
       <c r="O415" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
@@ -28590,7 +28623,7 @@
         <v>40</v>
       </c>
       <c r="O416" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
@@ -28648,7 +28681,7 @@
         <v>40</v>
       </c>
       <c r="O417" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
@@ -28706,7 +28739,7 @@
         <v>40</v>
       </c>
       <c r="O418" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
@@ -28764,7 +28797,7 @@
         <v>40</v>
       </c>
       <c r="O419" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
@@ -28822,7 +28855,7 @@
         <v>40</v>
       </c>
       <c r="O420" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
@@ -28880,7 +28913,7 @@
         <v>35</v>
       </c>
       <c r="O421" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
@@ -28938,7 +28971,7 @@
         <v>40</v>
       </c>
       <c r="O422" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
@@ -28996,7 +29029,7 @@
         <v>35</v>
       </c>
       <c r="O423" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
@@ -29054,7 +29087,7 @@
         <v>40</v>
       </c>
       <c r="O424" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
@@ -29112,7 +29145,7 @@
         <v>40</v>
       </c>
       <c r="O425" s="12" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
@@ -46631,6 +46664,7 @@
       <c r="Z1033" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
